--- a/data/Population.xlsx
+++ b/data/Population.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summ Compare" sheetId="12" r:id="rId1"/>
@@ -26,9 +26,9 @@
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId11"/>
-    <pivotCache cacheId="18" r:id="rId12"/>
-    <pivotCache cacheId="19" r:id="rId13"/>
+    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="21" r:id="rId12"/>
+    <pivotCache cacheId="22" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -319,7 +319,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="\(0.00%\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +372,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -1020,7 +1026,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1044,6 +1050,41 @@
       <bottom style="thick">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1073,7 +1114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1086,9 +1127,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1098,18 +1136,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1220,8 +1247,40 @@
     <xf numFmtId="165" fontId="6" fillId="105" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="106" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="107" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -23147,7 +23206,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:O18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -23297,7 +23356,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="20" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:N42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -24610,7 +24669,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="19" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="22" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:N42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
@@ -24831,11 +24890,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mon_by_reg_summ" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="regon_by_month_summ" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="regon_by_month_summ" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="mon_by_reg_summ" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25173,7 +25232,7 @@
   </sheetPr>
   <dimension ref="A2:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -25183,56 +25242,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="23">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -25734,569 +25793,569 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="23">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="23" t="s">
+      <c r="H24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="16">
         <v>1.711E-2</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="17">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="18">
         <v>9.41E-3</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="19">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="20">
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="21">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="22">
         <v>7.1799999999999998E-3</v>
       </c>
-      <c r="I26" s="27">
+      <c r="I26" s="19">
         <v>6.4900000000000001E-3</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="23">
         <v>9.3299999999999998E-3</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="20">
         <v>7.28E-3</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="24">
         <v>1.312E-2</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="25">
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="26">
         <v>3.1469999999999998E-2</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="27">
         <v>2.7949999999999999E-2</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="28">
         <v>1.762E-2</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="29">
         <v>1.349E-2</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="30">
         <v>1.634E-2</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="31">
         <v>1.9630000000000002E-2</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="32">
         <v>1.66E-2</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="33">
         <v>1.468E-2</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="34">
         <v>8.1099999999999992E-3</v>
       </c>
-      <c r="K27" s="43">
+      <c r="K27" s="35">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="L27" s="44">
+      <c r="L27" s="36">
         <v>1.2E-2</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="37">
         <v>3.3230000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="38">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="39">
         <v>1.0300000000000001E-3</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="38">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="E28" s="48">
-        <v>0</v>
-      </c>
-      <c r="F28" s="49">
+      <c r="E28" s="40">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="G28" s="48">
-        <v>0</v>
-      </c>
-      <c r="H28" s="50">
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="H28" s="42">
         <v>3.8999999999999999E-4</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="43">
         <v>1.2700000000000001E-3</v>
       </c>
-      <c r="J28" s="48">
-        <v>0</v>
-      </c>
-      <c r="K28" s="46">
+      <c r="J28" s="40">
+        <v>0</v>
+      </c>
+      <c r="K28" s="38">
         <v>4.6999999999999999E-4</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="44">
         <v>1.3699999999999999E-3</v>
       </c>
-      <c r="M28" s="53">
+      <c r="M28" s="45">
         <v>3.7299999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="46">
         <v>2.0289999999999999E-2</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="47">
         <v>1.881E-2</v>
       </c>
-      <c r="D29" s="56">
+      <c r="D29" s="48">
         <v>1.3820000000000001E-2</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="49">
         <v>1.1039999999999999E-2</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="50">
         <v>1.065E-2</v>
       </c>
-      <c r="G29" s="59">
+      <c r="G29" s="51">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="52">
         <v>2.1590000000000002E-2</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="30">
         <v>1.6310000000000002E-2</v>
       </c>
-      <c r="J29" s="61">
+      <c r="J29" s="53">
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="K29" s="31">
+      <c r="K29" s="23">
         <v>9.3500000000000007E-3</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="54">
         <v>9.8200000000000006E-3</v>
       </c>
-      <c r="M29" s="63">
+      <c r="M29" s="55">
         <v>2.546E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="64">
+      <c r="B30" s="56">
         <v>1.519E-2</v>
       </c>
-      <c r="C30" s="64">
+      <c r="C30" s="56">
         <v>1.5270000000000001E-2</v>
       </c>
-      <c r="D30" s="65">
+      <c r="D30" s="57">
         <v>7.5799999999999999E-3</v>
       </c>
-      <c r="E30" s="66">
+      <c r="E30" s="58">
         <v>6.0400000000000002E-3</v>
       </c>
-      <c r="F30" s="61">
+      <c r="F30" s="53">
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="59">
         <v>8.6199999999999992E-3</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="60">
         <v>7.6299999999999996E-3</v>
       </c>
-      <c r="I30" s="61">
+      <c r="I30" s="53">
         <v>7.9799999999999992E-3</v>
       </c>
-      <c r="J30" s="69">
+      <c r="J30" s="61">
         <v>4.7400000000000003E-3</v>
       </c>
-      <c r="K30" s="70">
+      <c r="K30" s="62">
         <v>6.3699999999999998E-3</v>
       </c>
-      <c r="L30" s="71">
+      <c r="L30" s="63">
         <v>1.372E-2</v>
       </c>
-      <c r="M30" s="72">
+      <c r="M30" s="64">
         <v>2.0150000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="65">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="66">
         <v>7.3499999999999998E-3</v>
       </c>
-      <c r="D31" s="75">
+      <c r="D31" s="67">
         <v>5.1900000000000002E-3</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="68">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="69">
         <v>8.5999999999999998E-4</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="70">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="71">
         <v>2.1900000000000001E-3</v>
       </c>
-      <c r="I31" s="80">
+      <c r="I31" s="72">
         <v>2.9099999999999998E-3</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="73">
         <v>1.7899999999999999E-3</v>
       </c>
-      <c r="K31" s="82">
+      <c r="K31" s="74">
         <v>4.2599999999999999E-3</v>
       </c>
-      <c r="L31" s="83">
+      <c r="L31" s="75">
         <v>8.8500000000000002E-3</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="29">
         <v>1.3429999999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="76">
         <v>1.3500000000000001E-3</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="77">
         <v>1.41E-3</v>
       </c>
-      <c r="D32" s="48">
-        <v>0</v>
-      </c>
-      <c r="E32" s="78">
+      <c r="D32" s="40">
+        <v>0</v>
+      </c>
+      <c r="E32" s="70">
         <v>2.65E-3</v>
       </c>
-      <c r="F32" s="86">
+      <c r="F32" s="78">
         <v>8.7799999999999996E-3</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="79">
         <v>6.1700000000000001E-3</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="22">
         <v>7.11E-3</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="80">
         <v>1.167E-2</v>
       </c>
-      <c r="J32" s="67">
+      <c r="J32" s="59">
         <v>8.6400000000000001E-3</v>
       </c>
-      <c r="K32" s="89">
+      <c r="K32" s="81">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="L32" s="85">
+      <c r="L32" s="77">
         <v>1.4599999999999999E-3</v>
       </c>
-      <c r="M32" s="90">
+      <c r="M32" s="82">
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="91">
+      <c r="B33" s="83">
         <v>1.797E-2</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="84">
         <v>1.9480000000000001E-2</v>
       </c>
-      <c r="D33" s="93">
+      <c r="D33" s="85">
         <v>1.9189999999999999E-2</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="86">
         <v>1.9789999999999999E-2</v>
       </c>
-      <c r="F33" s="95">
+      <c r="F33" s="87">
         <v>2.5680000000000001E-2</v>
       </c>
-      <c r="G33" s="96">
+      <c r="G33" s="88">
         <v>3.2349999999999997E-2</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="89">
         <v>2.767E-2</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="90">
         <v>2.2290000000000001E-2</v>
       </c>
-      <c r="J33" s="99">
+      <c r="J33" s="91">
         <v>1.321E-2</v>
       </c>
-      <c r="K33" s="100">
+      <c r="K33" s="92">
         <v>1.387E-2</v>
       </c>
-      <c r="L33" s="101">
+      <c r="L33" s="93">
         <v>1.214E-2</v>
       </c>
-      <c r="M33" s="102">
+      <c r="M33" s="94">
         <v>2.477E-2</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="103">
+      <c r="B34" s="95">
         <v>1.2319999999999999E-2</v>
       </c>
-      <c r="C34" s="104">
+      <c r="C34" s="96">
         <v>1.1140000000000001E-2</v>
       </c>
-      <c r="D34" s="104">
+      <c r="D34" s="96">
         <v>1.1220000000000001E-2</v>
       </c>
-      <c r="E34" s="105">
+      <c r="E34" s="97">
         <v>1.038E-2</v>
       </c>
-      <c r="F34" s="103">
+      <c r="F34" s="95">
         <v>1.227E-2</v>
       </c>
-      <c r="G34" s="95">
+      <c r="G34" s="87">
         <v>2.5680000000000001E-2</v>
       </c>
-      <c r="H34" s="106">
+      <c r="H34" s="98">
         <v>2.4840000000000001E-2</v>
       </c>
-      <c r="I34" s="92">
+      <c r="I34" s="84">
         <v>1.9439999999999999E-2</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="97">
         <v>1.043E-2</v>
       </c>
-      <c r="K34" s="107">
+      <c r="K34" s="99">
         <v>8.4499999999999992E-3</v>
       </c>
-      <c r="L34" s="108">
+      <c r="L34" s="100">
         <v>9.2099999999999994E-3</v>
       </c>
-      <c r="M34" s="109">
+      <c r="M34" s="101">
         <v>1.235E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="49">
         <v>1.107E-2</v>
       </c>
-      <c r="C35" s="110">
+      <c r="C35" s="102">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="D35" s="27">
+      <c r="D35" s="19">
         <v>6.45E-3</v>
       </c>
-      <c r="E35" s="111">
+      <c r="E35" s="103">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="F35" s="112">
+      <c r="F35" s="104">
         <v>5.94E-3</v>
       </c>
-      <c r="G35" s="113">
+      <c r="G35" s="105">
         <v>8.5199999999999998E-3</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="18">
         <v>9.4199999999999996E-3</v>
       </c>
-      <c r="I35" s="25">
+      <c r="I35" s="17">
         <v>9.3900000000000008E-3</v>
       </c>
-      <c r="J35" s="114">
+      <c r="J35" s="106">
         <v>4.4200000000000003E-3</v>
       </c>
-      <c r="K35" s="90">
+      <c r="K35" s="82">
         <v>3.5400000000000002E-3</v>
       </c>
-      <c r="L35" s="111">
+      <c r="L35" s="103">
         <v>5.6100000000000004E-3</v>
       </c>
-      <c r="M35" s="115">
+      <c r="M35" s="107">
         <v>1.5689999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="116">
+      <c r="B36" s="108">
         <v>1.6449999999999999E-2</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="83">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="109">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="E36" s="83">
+      <c r="E36" s="75">
         <v>8.9300000000000004E-3</v>
       </c>
-      <c r="F36" s="118">
+      <c r="F36" s="110">
         <v>1.7649999999999999E-2</v>
       </c>
-      <c r="G36" s="72">
+      <c r="G36" s="64">
         <v>2.0080000000000001E-2</v>
       </c>
-      <c r="H36" s="91">
+      <c r="H36" s="83">
         <v>1.7950000000000001E-2</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="65">
         <v>1.0800000000000001E-2</v>
       </c>
-      <c r="J36" s="86">
+      <c r="J36" s="78">
         <v>8.77E-3</v>
       </c>
-      <c r="K36" s="119">
+      <c r="K36" s="111">
         <v>1.008E-2</v>
       </c>
-      <c r="L36" s="120">
+      <c r="L36" s="112">
         <v>1.155E-2</v>
       </c>
-      <c r="M36" s="121">
+      <c r="M36" s="113">
         <v>2.436E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="122">
+      <c r="B37" s="114">
         <v>6.5599999999999999E-3</v>
       </c>
-      <c r="C37" s="123">
+      <c r="C37" s="115">
         <v>4.7499999999999999E-3</v>
       </c>
-      <c r="D37" s="124">
+      <c r="D37" s="116">
         <v>4.3499999999999997E-3</v>
       </c>
-      <c r="E37" s="125">
+      <c r="E37" s="117">
         <v>2.14E-3</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="72">
         <v>2.8800000000000002E-3</v>
       </c>
-      <c r="G37" s="126">
+      <c r="G37" s="118">
         <v>2.7599999999999999E-3</v>
       </c>
-      <c r="H37" s="127">
+      <c r="H37" s="119">
         <v>3.8500000000000001E-3</v>
       </c>
-      <c r="I37" s="128">
+      <c r="I37" s="120">
         <v>3.5100000000000001E-3</v>
       </c>
-      <c r="J37" s="29">
+      <c r="J37" s="21">
         <v>3.2699999999999999E-3</v>
       </c>
-      <c r="K37" s="127">
+      <c r="K37" s="119">
         <v>3.8800000000000002E-3</v>
       </c>
-      <c r="L37" s="129">
+      <c r="L37" s="121">
         <v>3.96E-3</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="22">
         <v>7.1599999999999997E-3</v>
       </c>
     </row>
@@ -29697,558 +29756,560 @@
   </sheetPr>
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="23">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:13" ht="81" customHeight="1">
+      <c r="B2" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="7" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+    </row>
+    <row r="3" spans="1:13" ht="23">
+      <c r="A3" s="125"/>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" ht="26" customHeight="1">
+      <c r="A4" s="125" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="126">
         <v>1.83163675328154E-2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="126">
         <v>1.35254013635364E-2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="126">
         <v>1.1745352854087799E-2</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="126">
         <v>5.1684858376687404E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="126">
         <v>3.47384399813171E-3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="126">
         <v>3.18615315063185E-3</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="126">
         <v>4.5500100220485099E-3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="126">
         <v>6.60747892971115E-3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="126">
         <v>6.9808957928112801E-3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="126">
         <v>8.6519114688128809E-3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="126">
         <v>1.5292658887864401E-2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="126">
         <v>1.76845943482224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+    <row r="5" spans="1:13" ht="26" customHeight="1">
+      <c r="A5" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="126">
         <v>3.15457906284752E-2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="126">
         <v>2.8486911103496299E-2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="126">
         <v>1.7401941078504599E-2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="126">
         <v>1.3493018209265E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="126">
         <v>1.6140157105014701E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="126">
         <v>1.9566146075462702E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="126">
         <v>1.73296316074836E-2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="126">
         <v>1.4502866144756901E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="126">
         <v>8.09152400467094E-3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="126">
         <v>8.0241410778564507E-3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="126">
         <v>1.1286579906956201E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="126">
         <v>3.3846918655263201E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
+    <row r="6" spans="1:13" ht="26" customHeight="1">
+      <c r="A6" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="126">
         <v>1.0770887828896801E-3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="126">
         <v>1.13593824626625E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="126">
         <v>1.13161664680318E-3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="126">
         <v>2.85544318857823E-4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="126">
         <v>5.6255493700556704E-4</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="126">
         <v>2.06398348813209E-4</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="126">
         <v>3.0268786827023999E-4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="126">
         <v>1.1617745334909801E-3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="126">
         <v>1.3076401849716499E-4</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="126">
         <v>5.0603213304044803E-4</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="126">
         <v>9.0865238998014402E-4</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="126">
         <v>3.44354812996206E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="7" spans="1:13" ht="26" customHeight="1">
+      <c r="A7" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="126">
         <v>2.0065226176429599E-2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="126">
         <v>1.8530266101298799E-2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="126">
         <v>1.42152003384082E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="126">
         <v>1.0377909577463301E-2</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="126">
         <v>1.1853243586546301E-2</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="126">
         <v>1.9921281184081801E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="126">
         <v>2.0107346444389801E-2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="126">
         <v>1.71029723583992E-2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="126">
         <v>8.7162323159868799E-3</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="126">
         <v>9.6347854027567098E-3</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="126">
         <v>9.7080227269606099E-3</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="126">
         <v>2.40873432918552E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
+    <row r="8" spans="1:13" ht="26" customHeight="1">
+      <c r="A8" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="126">
         <v>1.6411360969572301E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="126">
         <v>1.3212106461763099E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="126">
         <v>9.9975006248437907E-3</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="126">
         <v>7.2483969891273996E-3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="126">
         <v>7.0784371555859104E-3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="126">
         <v>8.2994579945799493E-3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="126">
         <v>7.3864260685899902E-3</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="126">
         <v>7.0740573023119202E-3</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="126">
         <v>5.2254530130636297E-3</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="126">
         <v>6.3627484775364796E-3</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="126">
         <v>8.2997718328407608E-3</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="126">
         <v>2.0708073083883002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" ht="26" customHeight="1">
+      <c r="A9" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="126">
         <v>1.3674313473725301E-2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="126">
         <v>5.0508652605507302E-3</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="126">
         <v>4.2158757836653496E-3</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="126">
         <v>1.7926291308092001E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="126">
         <v>1.5103168370121001E-3</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="126">
         <v>2.1039621475509602E-3</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="126">
         <v>2.0167976838198999E-3</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="126">
         <v>2.2975223771457502E-3</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="126">
         <v>1.8236099394319E-3</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="126">
         <v>2.9275863285245702E-3</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="126">
         <v>6.6736612116426704E-3</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="126">
         <v>1.5132519634457201E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
+    <row r="10" spans="1:13" ht="26" customHeight="1">
+      <c r="A10" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="126">
         <v>3.68094126926743E-3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="126">
         <v>2.7028001009045399E-3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="126">
         <v>2.1849271690943602E-3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="126">
         <v>2.7453212360641498E-3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="126">
         <v>4.2075236227491503E-3</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="126">
         <v>5.1425899953249201E-3</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="126">
         <v>7.61612417467856E-3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="126">
         <v>6.1237546842153401E-3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="126">
         <v>3.9342649891397899E-3</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="126">
         <v>5.1038575667655796E-3</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="126">
         <v>3.2789222325183501E-3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="126">
         <v>3.2859037742674498E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" ht="26" customHeight="1">
+      <c r="A11" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="126">
         <v>1.80782873856494E-2</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="126">
         <v>1.9392798768943401E-2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="126">
         <v>1.9879462867859798E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="126">
         <v>1.9377314994690101E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="126">
         <v>2.4723047146626199E-2</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="126">
         <v>3.2358564287503999E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="126">
         <v>2.8770720736252801E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="126">
         <v>2.17325541806897E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="126">
         <v>1.2317932003859101E-2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="126">
         <v>1.49383183088975E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="126">
         <v>1.28538027947778E-2</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="126">
         <v>2.3560888108262099E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+    <row r="12" spans="1:13" ht="26" customHeight="1">
+      <c r="A12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="126">
         <v>1.17667328117911E-2</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="126">
         <v>1.22028379553401E-2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="126">
         <v>1.1333452971894999E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="126">
         <v>1.0275184316779399E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="126">
         <v>1.2522653472517201E-2</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="126">
         <v>2.4639025036428699E-2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="126">
         <v>2.4754959916400299E-2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="126">
         <v>1.9812666555533601E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="126">
         <v>1.06484996706952E-2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="126">
         <v>8.6706117395998605E-3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="126">
         <v>7.8278395211662799E-3</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="126">
         <v>1.2165576723706399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+    <row r="13" spans="1:13" ht="26" customHeight="1">
+      <c r="A13" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="126">
         <v>1.11713994237733E-2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="126">
         <v>7.40648333893364E-3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="126">
         <v>6.1742563757648901E-3</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="126">
         <v>5.4026969498189902E-3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="126">
         <v>5.8890742856719603E-3</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="126">
         <v>9.6106696401582602E-3</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="126">
         <v>1.0786919950549799E-2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="126">
         <v>9.0446065026816604E-3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="126">
         <v>4.45885618623818E-3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="126">
         <v>5.1926077001386304E-3</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="126">
         <v>4.5742047850398796E-3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="126">
         <v>1.37827725721442E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="14" spans="1:13" ht="26" customHeight="1">
+      <c r="A14" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="126">
         <v>1.6532857755035199E-2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="126">
         <v>1.91345664347531E-2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="126">
         <v>1.34920941740441E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="126">
         <v>1.0446691372710501E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="126">
         <v>1.4891391482374399E-2</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="126">
         <v>1.9648623209852799E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="126">
         <v>1.7281588846805598E-2</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="126">
         <v>1.26180426848578E-2</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="126">
         <v>9.7704572528177405E-3</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="126">
         <v>9.1448255780414295E-3</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="126">
         <v>1.0694316427319101E-2</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="126">
         <v>2.2656535672023002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="15" spans="1:13" ht="26" customHeight="1">
+      <c r="A15" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="126">
         <v>6.5056685512156799E-3</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="126">
         <v>4.9724884473104098E-3</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="126">
         <v>4.1201977791482302E-3</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="126">
         <v>3.0258521946445001E-3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="126">
         <v>2.7572701223651302E-3</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="126">
         <v>3.1910343995701401E-3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="126">
         <v>4.0261695731625396E-3</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="126">
         <v>3.8330254832081301E-3</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="126">
         <v>2.7743973855761002E-3</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="126">
         <v>4.3002263683265202E-3</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="126">
         <v>4.32748687837503E-3</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="126">
         <v>7.2893919008759902E-3</v>
       </c>
     </row>
@@ -30273,7 +30334,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="79" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -30287,1114 +30348,1144 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:N30"/>
+  <dimension ref="A4:N31"/>
   <sheetViews>
     <sheetView zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="79" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:N30"/>
+      <selection activeCell="A5" sqref="A5:N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="0" style="16" hidden="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="19.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="3" max="14" width="15" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14" ht="23">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:14" ht="24" thickBot="1">
+      <c r="C4" s="122" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+    </row>
+    <row r="5" spans="1:14" ht="23">
+      <c r="A5" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="16" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="129" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="129" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="24" thickBot="1">
+      <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="16" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
+      <c r="L6" s="128"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+    </row>
+    <row r="7" spans="1:14" ht="23">
+      <c r="A7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="130">
         <v>1.71052631578947E-2</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="130">
         <v>9.3896713615023494E-3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="130">
         <v>9.4086021505376295E-3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="130">
         <v>6.5019505851755498E-3</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="130">
         <v>7.20288115246098E-3</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="130">
         <v>3.33611342785655E-3</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="130">
         <v>7.1827613727055099E-3</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="130">
         <v>6.4882400648824E-3</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="130">
         <v>9.3264248704663204E-3</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="130">
         <v>7.2840790842872002E-3</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="130">
         <v>1.31233595800525E-2</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="130">
         <v>1.8203883495145599E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:14" ht="24" thickBot="1">
+      <c r="A8" s="138"/>
+      <c r="B8" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="132">
         <v>4.6462208483738403E-3</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="132">
         <v>3.77328616110596E-3</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="132">
         <v>3.4981144951204001E-3</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="132">
         <v>2.8620097555473998E-3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="132">
         <v>2.89585028343893E-3</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="132">
         <v>1.64432519559975E-3</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="132">
         <v>2.3564316491009301E-3</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="132">
         <v>2.2583811965829802E-3</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="132">
         <v>3.0558218361439902E-3</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="132">
         <v>2.70633509146325E-3</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="132">
         <v>4.0750796592607602E-3</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="132">
         <v>4.60136420255666E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickTop="1">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:14" ht="24" thickTop="1">
+      <c r="A9" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="130">
         <v>3.1474995135240297E-2</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="130">
         <v>2.7951606174384601E-2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="130">
         <v>1.7617103271092401E-2</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="130">
         <v>1.34866553094832E-2</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="130">
         <v>1.6342878188012201E-2</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="130">
         <v>1.9630725628308299E-2</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="130">
         <v>1.6597339483546799E-2</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="130">
         <v>1.46781467814678E-2</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="130">
         <v>8.1115447011882308E-3</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="130">
         <v>8.7026659874342004E-3</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="130">
         <v>1.2002328810067599E-2</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="130">
         <v>3.3230852699159097E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:14" ht="24" thickBot="1">
+      <c r="A10" s="138"/>
+      <c r="B10" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="134">
         <v>1.2026645452853999E-3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="134">
         <v>1.17545299614734E-3</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="134">
         <v>8.7985732438831802E-4</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="134">
         <v>7.8353987107815696E-4</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="134">
         <v>8.4951356894876699E-4</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="134">
         <v>8.8430314763037095E-4</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="134">
         <v>8.0966465021433797E-4</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="134">
         <v>7.6040432070246502E-4</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="134">
         <v>5.8644701533076902E-4</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="134">
         <v>5.9760074824876102E-4</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="134">
         <v>7.1952409141078804E-4</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="134">
         <v>1.1902714581359299E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:14" ht="24" thickTop="1">
+      <c r="A11" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="130">
         <v>4.6860356138706699E-4</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="130">
         <v>1.03039670273055E-3</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="130">
         <v>4.8355899419729202E-4</v>
       </c>
-      <c r="F11" s="18">
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
+      <c r="F11" s="130">
+        <v>0</v>
+      </c>
+      <c r="G11" s="130">
         <v>4.5269352648257102E-4</v>
       </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="H11" s="130">
+        <v>0</v>
+      </c>
+      <c r="I11" s="130">
         <v>3.8819875776397502E-4</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="130">
         <v>1.2658227848101301E-3</v>
       </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
+      <c r="K11" s="130">
+        <v>0</v>
+      </c>
+      <c r="L11" s="130">
         <v>4.6728971962616803E-4</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="130">
         <v>1.36798905608755E-3</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="130">
         <v>3.7344398340248999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="1:14" ht="24" thickBot="1">
+      <c r="A12" s="138"/>
+      <c r="B12" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="134">
         <v>4.6264764147967602E-4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="134">
         <v>7.1922954502394497E-4</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="134">
         <v>4.7750181991577001E-4</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="F12" s="134">
+        <v>0</v>
+      </c>
+      <c r="G12" s="134">
         <v>4.4679515276973902E-4</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="15">
+      <c r="H12" s="134">
+        <v>0</v>
+      </c>
+      <c r="I12" s="134">
         <v>3.8312074734701601E-4</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="134">
         <v>7.2155966698341499E-4</v>
       </c>
-      <c r="K12" s="15">
-        <v>0</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="134">
+        <v>0</v>
+      </c>
+      <c r="L12" s="134">
         <v>4.6150353089940098E-4</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="134">
         <v>7.7967740493163195E-4</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="134">
         <v>1.22672551831602E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:14" ht="24" thickTop="1">
+      <c r="A13" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="130">
         <v>2.02949017900865E-2</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="130">
         <v>1.8812225052095399E-2</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="130">
         <v>1.3815417800832E-2</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="130">
         <v>1.1041917421110501E-2</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="130">
         <v>1.0653224549186701E-2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="130">
         <v>1.9302118066970401E-2</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="130">
         <v>2.15879324360943E-2</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="130">
         <v>1.63109963300258E-2</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="130">
         <v>7.9944729569680194E-3</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="130">
         <v>9.3471246915923303E-3</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="130">
         <v>9.8166234801674301E-3</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="130">
         <v>2.5458052073288301E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21" t="s">
+    <row r="14" spans="1:14" ht="24" thickBot="1">
+      <c r="A14" s="138"/>
+      <c r="B14" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="134">
         <v>1.0271406437847401E-3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="134">
         <v>1.0206384169510201E-3</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="134">
         <v>8.2598604332233998E-4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="134">
         <v>7.4640492562146098E-4</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="134">
         <v>7.3083939577727602E-4</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="134">
         <v>9.30987057982897E-4</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="134">
         <v>9.6438501155871005E-4</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="134">
         <v>8.4195374956756101E-4</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="134">
         <v>6.1772963125627199E-4</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="134">
         <v>6.5454746976283801E-4</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="134">
         <v>6.8720754336245703E-4</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="134">
         <v>1.0797534780474299E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:14" ht="24" thickTop="1">
+      <c r="A15" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="130">
         <v>1.51915455746367E-2</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="130">
         <v>1.5267175572519101E-2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="130">
         <v>7.5757575757575803E-3</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="130">
         <v>6.0443250503693802E-3</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="130">
         <v>7.9901659496004907E-3</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="130">
         <v>8.6163203243791193E-3</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="130">
         <v>7.6299475441106296E-3</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="130">
         <v>7.9849694692343803E-3</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="130">
         <v>4.739336492891E-3</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="130">
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="130">
         <v>1.37242669993762E-2</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="130">
         <v>2.0149683362118601E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+    <row r="16" spans="1:14" ht="24" thickBot="1">
+      <c r="A16" s="138"/>
+      <c r="B16" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="134">
         <v>3.1060439498456099E-3</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="134">
         <v>3.1904231942072002E-3</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="134">
         <v>2.1521900341202002E-3</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="134">
         <v>1.9846676213313599E-3</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="134">
         <v>2.1798216470039701E-3</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="134">
         <v>2.0543447255921398E-3</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="134">
         <v>1.8761610153417399E-3</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="134">
         <v>1.90404330610599E-3</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="134">
         <v>1.65218549615197E-3</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="134">
         <v>1.8898798412320401E-3</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="134">
         <v>2.8708840124368399E-3</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="134">
         <v>3.3293828331347501E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:14" ht="24" thickTop="1">
+      <c r="A17" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="130">
         <v>1.07854630715123E-2</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="130">
         <v>7.34715297822094E-3</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="130">
         <v>5.1918735891647904E-3</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="130">
         <v>1.8665422305179701E-3</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="130">
         <v>8.5929108485499498E-4</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="130">
         <v>2.6236881559220399E-3</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="130">
         <v>2.1921812203142101E-3</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="130">
         <v>2.9143897996357E-3</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="130">
         <v>1.79497407259673E-3</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L17" s="130">
         <v>4.2630937880633402E-3</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="130">
         <v>8.8534749889331594E-3</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="130">
         <v>1.34337472013027E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21" t="s">
+    <row r="18" spans="1:14" ht="24" thickBot="1">
+      <c r="A18" s="138"/>
+      <c r="B18" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="134">
         <v>1.56172920774045E-3</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="134">
         <v>1.36635233920096E-3</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="134">
         <v>1.0660801535866901E-3</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="134">
         <v>6.5105239410582203E-4</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="134">
         <v>4.2398120663542999E-4</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="134">
         <v>6.9148442520843695E-4</v>
       </c>
-      <c r="I18" s="15">
+      <c r="I18" s="134">
         <v>6.2438893036871395E-4</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="134">
         <v>7.18529432360304E-4</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="134">
         <v>5.9022724454110701E-4</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="134">
         <v>9.1679806424494305E-4</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="134">
         <v>1.3766675901668E-3</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="134">
         <v>1.62156399374656E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:14" ht="24" thickTop="1">
+      <c r="A19" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="130">
         <v>1.3513513513513499E-3</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="130">
         <v>1.41242937853107E-3</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="130">
+        <v>0</v>
+      </c>
+      <c r="F19" s="130">
         <v>2.6455026455026501E-3</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="130">
         <v>8.7847730600292794E-3</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="130">
         <v>6.17283950617284E-3</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="130">
         <v>7.10900473933649E-3</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="130">
         <v>1.1668611435239199E-2</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="130">
         <v>8.6355785837651106E-3</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="130">
         <v>1.59744408945687E-3</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="130">
         <v>1.4556040756914101E-3</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="130">
         <v>3.60144057623049E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21" t="s">
+    <row r="20" spans="1:14" ht="24" thickBot="1">
+      <c r="A20" s="138"/>
+      <c r="B20" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="134">
         <v>1.33562507275882E-3</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="134">
         <v>1.39518080989809E-3</v>
       </c>
-      <c r="E20" s="15">
-        <v>0</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="E20" s="134">
+        <v>0</v>
+      </c>
+      <c r="F20" s="134">
         <v>1.8470146763511499E-3</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="134">
         <v>3.5326598355138001E-3</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H20" s="134">
         <v>2.7215805670807798E-3</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="134">
         <v>2.86079194261504E-3</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="134">
         <v>3.6260895186069901E-3</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="134">
         <v>3.8070049478090202E-3</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="134">
         <v>1.57941022217501E-3</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="134">
         <v>1.4390199240207401E-3</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="134">
         <v>2.0521595001255898E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:14" ht="24" thickTop="1">
+      <c r="A21" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="130">
         <v>1.7969637509036501E-2</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="130">
         <v>1.9479061412372298E-2</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="130">
         <v>1.9188154713940399E-2</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="130">
         <v>1.9788168431929699E-2</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="130">
         <v>2.56849315068493E-2</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="130">
         <v>3.2351855270444901E-2</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="130">
         <v>2.76725636112473E-2</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="130">
         <v>2.2288459827386801E-2</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="130">
         <v>1.3212021487683299E-2</v>
       </c>
-      <c r="L21" s="18">
+      <c r="L21" s="130">
         <v>1.38664946791358E-2</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="130">
         <v>1.2139313069030299E-2</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="130">
         <v>2.47737017627442E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
+    <row r="22" spans="1:14" ht="24" thickBot="1">
+      <c r="A22" s="138"/>
+      <c r="B22" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="134">
         <v>9.4254374890402105E-4</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="134">
         <v>1.0224294796571901E-3</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="134">
         <v>9.6137583646071405E-4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="134">
         <v>9.8847281714758203E-4</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="134">
         <v>1.10859620005586E-3</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="134">
         <v>1.18701890996304E-3</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="134">
         <v>1.0812606590623101E-3</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="134">
         <v>9.7220548531259401E-4</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="134">
         <v>7.84400044142857E-4</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="134">
         <v>7.8371016602059502E-4</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="134">
         <v>7.5047439325867703E-4</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="134">
         <v>1.0596513198914499E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:14" ht="24" thickTop="1">
+      <c r="A23" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="130">
         <v>1.23217499653883E-2</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="130">
         <v>1.1144845971564E-2</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="130">
         <v>1.12151956176461E-2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="130">
         <v>1.03807398390478E-2</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="130">
         <v>1.2266375098233501E-2</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="130">
         <v>2.5682746299132201E-2</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="130">
         <v>2.4839257551862198E-2</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="130">
         <v>1.94407375955356E-2</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="130">
         <v>1.04295918709548E-2</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="130">
         <v>8.4544930506629101E-3</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="130">
         <v>9.2110402291368295E-3</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="130">
         <v>1.23476333702707E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21" t="s">
+    <row r="24" spans="1:14" ht="24" thickBot="1">
+      <c r="A24" s="138"/>
+      <c r="B24" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="134">
         <v>6.4084856392509603E-4</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="134">
         <v>6.3076131079698296E-4</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="134">
         <v>5.91984474721218E-4</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="134">
         <v>5.8195345657808704E-4</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="134">
         <v>6.3539486792892497E-4</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="134">
         <v>8.8238321080763495E-4</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="134">
         <v>8.4625440673636795E-4</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="134">
         <v>7.5066647261311399E-4</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="134">
         <v>5.8090813672521903E-4</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="134">
         <v>5.1168914635958196E-4</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="134">
         <v>5.3816688376970203E-4</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="134">
         <v>6.1358853911285395E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:14" ht="24" thickTop="1">
+      <c r="A25" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="130">
         <v>1.1073127229488699E-2</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="130">
         <v>6.9466882067851397E-3</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="130">
         <v>6.45115553665107E-3</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="130">
         <v>5.6015960712093296E-3</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="130">
         <v>5.9404470186381498E-3</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="130">
         <v>8.5212023617820699E-3</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="130">
         <v>9.4160727130059504E-3</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="130">
         <v>9.3933981610107801E-3</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="130">
         <v>4.4216231636000601E-3</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="130">
         <v>3.53724511027882E-3</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="130">
         <v>5.6100981767180898E-3</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="130">
         <v>1.56911754495591E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+    <row r="26" spans="1:14" ht="24" thickBot="1">
+      <c r="A26" s="138"/>
+      <c r="B26" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="134">
         <v>8.9072944956667104E-4</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="134">
         <v>7.3714778278606802E-4</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="134">
         <v>6.6559004469516497E-4</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="134">
         <v>6.4560455621698798E-4</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="134">
         <v>6.5390130327084304E-4</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="134">
         <v>7.4344918819386596E-4</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="134">
         <v>7.7128421542944502E-4</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="134">
         <v>7.7488429329109604E-4</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="134">
         <v>5.5325302488854302E-4</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="134">
         <v>4.8822204908644201E-4</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="134">
         <v>6.33718860158312E-4</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="134">
         <v>1.02259397497758E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:14" ht="24" thickTop="1">
+      <c r="A27" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="130">
         <v>1.64506480558325E-2</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="130">
         <v>1.7999450398461101E-2</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="130">
         <v>1.1904761904761901E-2</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="130">
         <v>8.9285714285714298E-3</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="130">
         <v>1.76484338475923E-2</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="130">
         <v>2.00803212851406E-2</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="130">
         <v>1.79468772433597E-2</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="130">
         <v>1.0800508259212201E-2</v>
       </c>
-      <c r="K27" s="18">
+      <c r="K27" s="130">
         <v>8.7739552066497303E-3</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="130">
         <v>1.00783874580067E-2</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="130">
         <v>1.1549230051329899E-2</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="130">
         <v>2.4358974358974401E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
+    <row r="28" spans="1:14" ht="24" thickBot="1">
+      <c r="A28" s="138"/>
+      <c r="B28" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="134">
         <v>1.40204020843592E-3</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="134">
         <v>1.5391406297827601E-3</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="134">
         <v>1.1567536474584501E-3</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="134">
         <v>1.02019890830864E-3</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="134">
         <v>1.40529674450041E-3</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="134">
         <v>1.44345308090604E-3</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="134">
         <v>1.32753436617579E-3</v>
       </c>
-      <c r="J28" s="15">
+      <c r="J28" s="134">
         <v>1.05055661547507E-3</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="134">
         <v>9.8956873524753096E-4</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="134">
         <v>1.04400187865602E-3</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="134">
         <v>1.13961314745511E-3</v>
       </c>
-      <c r="N28" s="15">
+      <c r="N28" s="134">
         <v>1.6437073235855599E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:14" ht="24" thickTop="1">
+      <c r="A29" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="130">
         <v>6.5622669649515299E-3</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="130">
         <v>4.7499454029263999E-3</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="130">
         <v>4.3469860896445103E-3</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="130">
         <v>2.1444244963096E-3</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="130">
         <v>2.8796314071798802E-3</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="130">
         <v>2.7636427443411102E-3</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="130">
         <v>3.8500592316804902E-3</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="130">
         <v>3.51159248603825E-3</v>
       </c>
-      <c r="K29" s="18">
+      <c r="K29" s="130">
         <v>3.2675289312457498E-3</v>
       </c>
-      <c r="L29" s="18">
+      <c r="L29" s="130">
         <v>3.8764812122814001E-3</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="130">
         <v>3.9621498158765702E-3</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="130">
         <v>7.1628074601315398E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
+    <row r="30" spans="1:14" ht="24" thickBot="1">
+      <c r="A30" s="138"/>
+      <c r="B30" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="134">
         <v>5.6215246553881204E-4</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="134">
         <v>5.01722606879514E-4</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="134">
         <v>4.5147817589832699E-4</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="134">
         <v>3.2257989764601999E-4</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="134">
         <v>3.66556120281438E-4</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="134">
         <v>3.4333893958706099E-4</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="134">
         <v>3.9775749258026298E-4</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="134">
         <v>3.7992867263882401E-4</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="134">
         <v>3.7959008501973199E-4</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="134">
         <v>4.0724709698942199E-4</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="134">
         <v>4.2352155898558899E-4</v>
       </c>
-      <c r="N30" s="15">
+      <c r="N30" s="134">
         <v>5.5889844420612496E-4</v>
       </c>
     </row>
+    <row r="31" spans="1:14" ht="16" thickTop="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="C4:N4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C7:N7 C9:N9 C11:N11 C13:N13 C15:N15 C17:N17 C19:N19 C21:N21 C23:N23 C25:N25 C27:N27 C29:N29">
@@ -31408,7 +31499,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="79" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="56" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -34707,7 +34798,7 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="4">
@@ -34751,46 +34842,46 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1.4700906532563562E-2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>7.0563656977404299E-3</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>7.8653797532314898E-3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>5.5943205566482707E-3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>6.7425926291287104E-3</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>2.9582009622064146E-3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>5.5607428921814412E-3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>5.0690683795525321E-3</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>7.4903558868760021E-3</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>6.6094039843586083E-3</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>9.8235060147221567E-3</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>1.332794709017718E-2</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>7.7073002283774986E-3</v>
       </c>
     </row>
@@ -34813,7 +34904,7 @@
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="4">
@@ -34857,46 +34948,46 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>3.733436321692768E-3</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>3.6317037810881976E-3</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>2.7471701882452169E-3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>2.4716047447495282E-3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>2.6844189394037445E-3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>2.8837731518523107E-3</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>2.6320302305172807E-3</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="10">
         <v>2.4648939592748008E-3</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>1.910238487668329E-3</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <v>1.8408156697138868E-3</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>2.2392467334141544E-3</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10">
         <v>3.8483540716367894E-3</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>2.7456394889499806E-3</v>
       </c>
     </row>
@@ -34919,7 +35010,7 @@
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="4">
@@ -34963,46 +35054,46 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>4.07697114026643E-4</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>1.1527510481711221E-3</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>5.6333132389428599E-4</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <v>4.2143543221412002E-4</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>3.2005196561796543E-4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>7.3036639008926718E-4</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
         <v>4.1748029138939365E-4</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <v>1.2745084114528073E-3</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="10">
         <v>2.2600547082905517E-3</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>6.3369471352993346E-4</v>
       </c>
     </row>
@@ -35025,7 +35116,7 @@
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="4">
@@ -35069,46 +35160,46 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>3.0902236252772011E-3</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>2.9959375891860777E-3</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>2.462883550972972E-3</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>2.2154752130340684E-3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>2.2387250619377041E-3</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>3.0110018646782558E-3</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>3.1217696729152074E-3</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>2.7338738293809697E-3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>1.9899792490264676E-3</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <v>2.0252294228676319E-3</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <v>2.0290057297571154E-3</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="10">
         <v>3.4124830897889367E-3</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="10">
         <v>2.6109387546979584E-3</v>
       </c>
     </row>
@@ -35131,7 +35222,7 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="4">
@@ -35175,46 +35266,46 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>8.6333602366618321E-3</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>8.3465945885696814E-3</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>4.5583600376372536E-3</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>4.5993790055111018E-3</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>5.5517869793892862E-3</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>5.7042624850227978E-3</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>5.0728910159629241E-3</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>5.1912819007676097E-3</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="10">
         <v>3.8279274970945518E-3</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <v>5.5262863984653875E-3</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <v>9.3732135339008437E-3</v>
       </c>
-      <c r="M19" s="11">
+      <c r="M19" s="10">
         <v>1.0608497034196314E-2</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>6.4192343858047738E-3</v>
       </c>
     </row>
@@ -35237,7 +35328,7 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4">
@@ -35281,46 +35372,46 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>4.6427341329703985E-3</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>3.4268670725695733E-3</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>3.0227157717417534E-3</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>1.6172137839083362E-3</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>8.6971332751923801E-4</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>1.9160051886681301E-3</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>1.722090326803792E-3</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="10">
         <v>1.8234349078452353E-3</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="10">
         <v>1.6891880694322389E-3</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <v>2.6890222323187915E-3</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <v>4.1562270388836673E-3</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="10">
         <v>5.0823162322245086E-3</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N22" s="10">
         <v>2.7216816129530157E-3</v>
       </c>
     </row>
@@ -35343,7 +35434,7 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="4">
@@ -35387,46 +35478,46 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>1.3357380247808102E-3</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1.5956762030200501E-3</v>
       </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="10">
         <v>2.6150584357169404E-3</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>5.6933936520338294E-3</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <v>5.5830442110179276E-3</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>5.7614399585376175E-3</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>9.288985661300429E-3</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="10">
         <v>7.3160976056696548E-3</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <v>1.7286163326909636E-3</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <v>1.8000539295490727E-3</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="10">
         <v>3.401822787052036E-3</v>
       </c>
-      <c r="N25" s="11">
+      <c r="N25" s="10">
         <v>3.9061364448780391E-3</v>
       </c>
     </row>
@@ -35449,7 +35540,7 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="4">
@@ -35493,46 +35584,46 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>2.8339799451485973E-3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>3.0756485425356959E-3</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="10">
         <v>2.8776979428848221E-3</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>3.1077568077704301E-3</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>3.470169481508354E-3</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="10">
         <v>3.6418315030089204E-3</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="10">
         <v>3.3483592200327637E-3</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="10">
         <v>3.0577997557606927E-3</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="10">
         <v>2.5344540567340847E-3</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <v>2.3534984309413979E-3</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <v>2.2703602254611922E-3</v>
       </c>
-      <c r="M28" s="11">
+      <c r="M28" s="10">
         <v>3.4387763167460688E-3</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="10">
         <v>2.9980189117639008E-3</v>
       </c>
     </row>
@@ -35555,7 +35646,7 @@
       <c r="N29" s="4"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="4">
@@ -35599,46 +35690,46 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>1.979381381238193E-3</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1.9076276643622912E-3</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>1.8205209451763078E-3</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>1.797967318769383E-3</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>1.9866386772901361E-3</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="10">
         <v>2.8823077881571864E-3</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <v>2.7698873780190262E-3</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="10">
         <v>2.4364857989420887E-3</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <v>1.8449675060612861E-3</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <v>1.5801388137417561E-3</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <v>1.6519851482399081E-3</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="10">
         <v>1.9587981156746685E-3</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <v>2.0574144559492775E-3</v>
       </c>
     </row>
@@ -35661,7 +35752,7 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="4">
@@ -35705,46 +35796,46 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>2.6339737289756957E-3</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>2.2971892274047264E-3</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>2.0129754188332812E-3</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>2.0122937420382027E-3</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>1.990665014376101E-3</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="10">
         <v>2.389804818728455E-3</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="10">
         <v>2.5608204107409791E-3</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="10">
         <v>2.5237399601229938E-3</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="10">
         <v>1.7537424965725357E-3</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <v>1.5652321847205329E-3</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <v>2.0412105205236844E-3</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="10">
         <v>3.3354617479816441E-3</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N34" s="10">
         <v>2.2625283846423559E-3</v>
       </c>
     </row>
@@ -35767,7 +35858,7 @@
       <c r="N35" s="4"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="4">
@@ -35811,46 +35902,46 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>4.3134327126123691E-3</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>4.7279430392507694E-3</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>3.5706797847135921E-3</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>3.0992020748081528E-3</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>4.3576960743615997E-3</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>4.5462837152146947E-3</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>4.2905237063413136E-3</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="10">
         <v>3.3349090350965034E-3</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="10">
         <v>3.0236442992705947E-3</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <v>3.0347521982956021E-3</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <v>3.4926067174795485E-3</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M37" s="10">
         <v>5.0212193005369143E-3</v>
       </c>
-      <c r="N37" s="11">
+      <c r="N37" s="10">
         <v>3.896636736630329E-3</v>
       </c>
     </row>
@@ -35873,7 +35964,7 @@
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4">
@@ -35917,46 +36008,46 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>1.6997636063595112E-3</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>1.4747763433258199E-3</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="10">
         <v>1.4245260109697975E-3</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>9.8278328444543583E-4</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>1.1269268190519449E-3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>1.0777831943195918E-3</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>1.2886466154573837E-3</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="10">
         <v>1.2459717388522984E-3</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="10">
         <v>1.207638157830078E-3</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <v>1.3065863924490448E-3</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <v>1.3560535260597405E-3</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M40" s="10">
         <v>1.8120208829241655E-3</v>
       </c>
-      <c r="N40" s="11">
+      <c r="N40" s="10">
         <v>1.3333028836877195E-3</v>
       </c>
     </row>
@@ -36008,43 +36099,43 @@
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>4.1670522801923E-3</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>3.4740900664353693E-3</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="10">
         <v>2.7438533940250648E-3</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>2.5094212472833223E-3</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>3.0945135073512319E-3</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>3.0495249069062229E-3</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="10">
         <v>3.2041044494273072E-3</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="10">
         <v>3.3250676097487872E-3</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="10">
         <v>2.8823527760196517E-3</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <v>2.5564218626627495E-3</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <v>3.4589981274536583E-3</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M42" s="10">
         <v>4.7923126147691461E-3</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N42" s="10">
         <v>3.2743772501553988E-3</v>
       </c>
     </row>
@@ -48459,7 +48550,7 @@
       <c r="I387">
         <v>4.02049503594733E-3</v>
       </c>
-      <c r="J387" s="9">
+      <c r="J387" s="8">
         <v>6.7394591032742007E-5</v>
       </c>
     </row>
@@ -51563,7 +51654,7 @@
       <c r="I484">
         <v>5.0454277769877197E-3</v>
       </c>
-      <c r="J484" s="9">
+      <c r="J484" s="8">
         <v>8.6066770799326803E-5</v>
       </c>
     </row>
@@ -74379,7 +74470,7 @@
       <c r="I1197">
         <v>5.41140178366014E-3</v>
       </c>
-      <c r="J1197" s="9">
+      <c r="J1197" s="8">
         <v>9.0661490067505394E-5</v>
       </c>
     </row>
@@ -76235,7 +76326,7 @@
       <c r="I1255">
         <v>5.8933625909480796E-3</v>
       </c>
-      <c r="J1255" s="9">
+      <c r="J1255" s="8">
         <v>9.9146772347795097E-5</v>
       </c>
     </row>
@@ -80939,7 +81030,7 @@
       <c r="I1402">
         <v>3.79620469347949E-3</v>
       </c>
-      <c r="J1402" s="9">
+      <c r="J1402" s="8">
         <v>6.4799167524370597E-5</v>
       </c>
     </row>
@@ -82059,7 +82150,7 @@
       <c r="I1437">
         <v>3.18340460233156E-3</v>
       </c>
-      <c r="J1437" s="9">
+      <c r="J1437" s="8">
         <v>5.4151043156098199E-5</v>
       </c>
     </row>
@@ -82699,7 +82790,7 @@
       <c r="I1457">
         <v>3.47918873064639E-3</v>
       </c>
-      <c r="J1457" s="9">
+      <c r="J1457" s="8">
         <v>5.9068677580056297E-5</v>
       </c>
     </row>
@@ -83083,7 +83174,7 @@
       <c r="I1469">
         <v>4.0694765831903604E-3</v>
       </c>
-      <c r="J1469" s="9">
+      <c r="J1469" s="8">
         <v>6.9168010705137798E-5</v>
       </c>
     </row>
@@ -83147,7 +83238,7 @@
       <c r="I1471">
         <v>3.9893913766172098E-3</v>
       </c>
-      <c r="J1471" s="9">
+      <c r="J1471" s="8">
         <v>6.7403755228631997E-5</v>
       </c>
     </row>
@@ -83307,7 +83398,7 @@
       <c r="I1476">
         <v>4.3368509464213204E-3</v>
       </c>
-      <c r="J1476" s="9">
+      <c r="J1476" s="8">
         <v>7.3292383236892296E-5</v>
       </c>
     </row>
@@ -83467,7 +83558,7 @@
       <c r="I1481">
         <v>4.3254127950848502E-3</v>
       </c>
-      <c r="J1481" s="9">
+      <c r="J1481" s="8">
         <v>7.2608095514381201E-5</v>
       </c>
     </row>
@@ -83499,7 +83590,7 @@
       <c r="I1482">
         <v>3.9684874996288796E-3</v>
       </c>
-      <c r="J1482" s="9">
+      <c r="J1482" s="8">
         <v>6.7839442853457802E-5</v>
       </c>
     </row>
@@ -83595,7 +83686,7 @@
       <c r="I1485">
         <v>4.0980350720204901E-3</v>
       </c>
-      <c r="J1485" s="9">
+      <c r="J1485" s="8">
         <v>6.8631594646175996E-5</v>
       </c>
     </row>
@@ -84299,7 +84390,7 @@
       <c r="I1507">
         <v>4.1268072111942103E-3</v>
       </c>
-      <c r="J1507" s="9">
+      <c r="J1507" s="8">
         <v>6.8263580625407E-5</v>
       </c>
     </row>
@@ -84900,54 +84991,54 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="4" spans="1:25">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="124"/>
+      <c r="H4" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
+      <c r="K4" s="124"/>
+      <c r="L4" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="124"/>
+      <c r="N4" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14" t="s">
+      <c r="O4" s="124"/>
+      <c r="P4" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14" t="s">
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="S4" s="124"/>
+      <c r="T4" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14" t="s">
+      <c r="U4" s="124"/>
+      <c r="V4" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14" t="s">
+      <c r="W4" s="124"/>
+      <c r="X4" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="Y4" s="14"/>
+      <c r="Y4" s="124"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
@@ -85033,73 +85124,73 @@
       <c r="B6" s="5">
         <v>1.7399000655389091E-2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1.4700906532563562E-2</v>
       </c>
       <c r="D6" s="5">
         <v>9.1361705163880789E-3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>7.0563656977404299E-3</v>
       </c>
       <c r="F6" s="5">
         <v>9.5103448976688407E-3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>7.8653797532314898E-3</v>
       </c>
       <c r="H6" s="5">
         <v>6.5201465201465206E-3</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>5.5943205566482707E-3</v>
       </c>
       <c r="J6" s="5">
         <v>7.5964163604400406E-3</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>6.7425926291287104E-3</v>
       </c>
       <c r="L6" s="5">
         <v>3.5301419752364841E-3</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="11">
         <v>2.9582009622064146E-3</v>
       </c>
       <c r="N6" s="5">
         <v>6.9857349319331317E-3</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="11">
         <v>5.5607428921814412E-3</v>
       </c>
       <c r="P6" s="5">
         <v>6.8067096374763297E-3</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="11">
         <v>5.0690683795525321E-3</v>
       </c>
       <c r="R6" s="5">
         <v>9.7037386130668247E-3</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="11">
         <v>7.4903558868760021E-3</v>
       </c>
       <c r="T6" s="5">
         <v>7.2539269776602903E-3</v>
       </c>
-      <c r="U6" s="12">
+      <c r="U6" s="11">
         <v>6.6094039843586083E-3</v>
       </c>
       <c r="V6" s="5">
         <v>1.3423910251715236E-2</v>
       </c>
-      <c r="W6" s="12">
+      <c r="W6" s="11">
         <v>9.8235060147221567E-3</v>
       </c>
       <c r="X6" s="5">
         <v>1.8057225550207921E-2</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="Y6" s="11">
         <v>1.332794709017718E-2</v>
       </c>
     </row>
@@ -85110,73 +85201,73 @@
       <c r="B7" s="5">
         <v>3.0794172909918899E-2</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>3.733436321692768E-3</v>
       </c>
       <c r="D7" s="5">
         <v>2.7944381709327372E-2</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>3.6317037810881976E-3</v>
       </c>
       <c r="F7" s="5">
         <v>1.7446994588835772E-2</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="11">
         <v>2.7471701882452169E-3</v>
       </c>
       <c r="H7" s="5">
         <v>1.3556427615107076E-2</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>2.4716047447495282E-3</v>
       </c>
       <c r="J7" s="5">
         <v>1.6395515510665416E-2</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>2.6844189394037445E-3</v>
       </c>
       <c r="L7" s="5">
         <v>1.9640754206553233E-2</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="11">
         <v>2.8837731518523107E-3</v>
       </c>
       <c r="N7" s="5">
         <v>1.6285870554203843E-2</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="11">
         <v>2.6320302305172807E-3</v>
       </c>
       <c r="P7" s="5">
         <v>1.4340314190943691E-2</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="11">
         <v>2.4648939592748008E-3</v>
       </c>
       <c r="R7" s="5">
         <v>7.9392978683590146E-3</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="11">
         <v>1.910238487668329E-3</v>
       </c>
       <c r="T7" s="5">
         <v>8.3777328649655286E-3</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="11">
         <v>1.8408156697138868E-3</v>
       </c>
       <c r="V7" s="5">
         <v>1.1385714816802695E-2</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="11">
         <v>2.2392467334141544E-3</v>
       </c>
       <c r="X7" s="5">
         <v>3.308753798534015E-2</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="11">
         <v>3.8483540716367894E-3</v>
       </c>
     </row>
@@ -85187,73 +85278,73 @@
       <c r="B8" s="5">
         <v>4.1322314049586803E-4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>4.07697114026643E-4</v>
       </c>
       <c r="D8" s="5">
         <v>1.167350386100386E-3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1.1527510481711221E-3</v>
       </c>
       <c r="F8" s="5">
         <v>5.7142857142857104E-4</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>5.6333132389428599E-4</v>
       </c>
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0</v>
       </c>
       <c r="J8" s="5">
         <v>4.2735042735042697E-4</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>4.2143543221412002E-4</v>
       </c>
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>0</v>
       </c>
       <c r="N8" s="5">
         <v>3.2467532467532457E-4</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>3.2005196561796543E-4</v>
       </c>
       <c r="P8" s="5">
         <v>1.2864493996569454E-3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="11">
         <v>7.3036639008926718E-4</v>
       </c>
       <c r="R8" s="5">
         <v>0</v>
       </c>
-      <c r="S8" s="12">
+      <c r="S8" s="11">
         <v>0</v>
       </c>
       <c r="T8" s="5">
         <v>4.2283298097251545E-4</v>
       </c>
-      <c r="U8" s="12">
+      <c r="U8" s="11">
         <v>4.1748029138939365E-4</v>
       </c>
       <c r="V8" s="5">
         <v>1.664878877268259E-3</v>
       </c>
-      <c r="W8" s="12">
+      <c r="W8" s="11">
         <v>1.2745084114528073E-3</v>
       </c>
       <c r="X8" s="5">
         <v>3.5780144823275724E-3</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="11">
         <v>2.2600547082905517E-3</v>
       </c>
     </row>
@@ -85264,73 +85355,73 @@
       <c r="B9" s="5">
         <v>1.9654497411273602E-2</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>3.0902236252772011E-3</v>
       </c>
       <c r="D9" s="5">
         <v>1.787958638211928E-2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.9959375891860777E-3</v>
       </c>
       <c r="F9" s="5">
         <v>1.3305197435925972E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2.462883550972972E-3</v>
       </c>
       <c r="H9" s="5">
         <v>1.0731696664568691E-2</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>2.2154752130340684E-3</v>
       </c>
       <c r="J9" s="5">
         <v>1.0474485438843151E-2</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>2.2387250619377041E-3</v>
       </c>
       <c r="L9" s="5">
         <v>1.8990825337475339E-2</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>3.0110018646782558E-3</v>
       </c>
       <c r="N9" s="5">
         <v>2.1107083598272881E-2</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>3.1217696729152074E-3</v>
       </c>
       <c r="P9" s="5">
         <v>1.6151372068977571E-2</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="11">
         <v>2.7338738293809697E-3</v>
       </c>
       <c r="R9" s="5">
         <v>7.8318093981150066E-3</v>
       </c>
-      <c r="S9" s="12">
+      <c r="S9" s="11">
         <v>1.9899792490264676E-3</v>
       </c>
       <c r="T9" s="5">
         <v>9.0565289459682598E-3</v>
       </c>
-      <c r="U9" s="12">
+      <c r="U9" s="11">
         <v>2.0252294228676319E-3</v>
       </c>
       <c r="V9" s="5">
         <v>9.2234663792214889E-3</v>
       </c>
-      <c r="W9" s="12">
+      <c r="W9" s="11">
         <v>2.0290057297571154E-3</v>
       </c>
       <c r="X9" s="5">
         <v>2.4830153085817399E-2</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="11">
         <v>3.4124830897889367E-3</v>
       </c>
     </row>
@@ -85341,73 +85432,73 @@
       <c r="B10" s="5">
         <v>1.4840943881178653E-2</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>8.6333602366618321E-3</v>
       </c>
       <c r="D10" s="5">
         <v>1.4634639832469492E-2</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>8.3465945885696814E-3</v>
       </c>
       <c r="F10" s="5">
         <v>7.6045987366406831E-3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>4.5583600376372536E-3</v>
       </c>
       <c r="H10" s="5">
         <v>5.7804795878344676E-3</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>4.5993790055111018E-3</v>
       </c>
       <c r="J10" s="5">
         <v>8.1560318568680255E-3</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>5.5517869793892862E-3</v>
       </c>
       <c r="L10" s="5">
         <v>8.7195197093386505E-3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>5.7042624850227978E-3</v>
       </c>
       <c r="N10" s="5">
         <v>7.9364209787939743E-3</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>5.0728910159629241E-3</v>
       </c>
       <c r="P10" s="5">
         <v>8.0151710913436754E-3</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="11">
         <v>5.1912819007676097E-3</v>
       </c>
       <c r="R10" s="5">
         <v>5.0193827026612028E-3</v>
       </c>
-      <c r="S10" s="12">
+      <c r="S10" s="11">
         <v>3.8279274970945518E-3</v>
       </c>
       <c r="T10" s="5">
         <v>6.2016170776858556E-3</v>
       </c>
-      <c r="U10" s="12">
+      <c r="U10" s="11">
         <v>5.5262863984653875E-3</v>
       </c>
       <c r="V10" s="5">
         <v>1.3564855973739616E-2</v>
       </c>
-      <c r="W10" s="12">
+      <c r="W10" s="11">
         <v>9.3732135339008437E-3</v>
       </c>
       <c r="X10" s="5">
         <v>2.0480788539033148E-2</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="11">
         <v>1.0608497034196314E-2</v>
       </c>
     </row>
@@ -85418,73 +85509,73 @@
       <c r="B11" s="5">
         <v>1.0492264097513681E-2</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>4.6427341329703985E-3</v>
       </c>
       <c r="D11" s="5">
         <v>7.1553315812940511E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>3.4268670725695733E-3</v>
       </c>
       <c r="F11" s="5">
         <v>5.1259037072680699E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>3.0227157717417534E-3</v>
       </c>
       <c r="H11" s="5">
         <v>1.9080894537433449E-3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>1.6172137839083362E-3</v>
       </c>
       <c r="J11" s="5">
         <v>8.8108526823414202E-4</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>8.6971332751923801E-4</v>
       </c>
       <c r="L11" s="5">
         <v>2.6595735448613307E-3</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>1.9160051886681301E-3</v>
       </c>
       <c r="N11" s="5">
         <v>2.1786389755196157E-3</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>1.722090326803792E-3</v>
       </c>
       <c r="P11" s="5">
         <v>2.862638957222816E-3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="11">
         <v>1.8234349078452353E-3</v>
       </c>
       <c r="R11" s="5">
         <v>1.8342265387433108E-3</v>
       </c>
-      <c r="S11" s="12">
+      <c r="S11" s="11">
         <v>1.6891880694322389E-3</v>
       </c>
       <c r="T11" s="5">
         <v>4.1399180864352264E-3</v>
       </c>
-      <c r="U11" s="12">
+      <c r="U11" s="11">
         <v>2.6890222323187915E-3</v>
       </c>
       <c r="V11" s="5">
         <v>8.7514258429378516E-3</v>
       </c>
-      <c r="W11" s="12">
+      <c r="W11" s="11">
         <v>4.1562270388836673E-3</v>
       </c>
       <c r="X11" s="5">
         <v>1.3521112959474908E-2</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="11">
         <v>5.0823162322245086E-3</v>
       </c>
     </row>
@@ -85495,73 +85586,73 @@
       <c r="B12" s="5">
         <v>1.3513513513513501E-3</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>1.3357380247808102E-3</v>
       </c>
       <c r="D12" s="5">
         <v>1.6129032258064499E-3</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>1.5956762030200501E-3</v>
       </c>
       <c r="F12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>0</v>
       </c>
       <c r="H12" s="5">
         <v>2.6470588235294099E-3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>2.6150584357169404E-3</v>
       </c>
       <c r="J12" s="5">
         <v>8.5087713638680503E-3</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>5.6933936520338294E-3</v>
       </c>
       <c r="L12" s="5">
         <v>6.5256249127216811E-3</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>5.5830442110179276E-3</v>
       </c>
       <c r="N12" s="5">
         <v>6.3352726767360815E-3</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>5.7614399585376175E-3</v>
       </c>
       <c r="P12" s="5">
         <v>1.1665200066884545E-2</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="11">
         <v>9.288985661300429E-3</v>
       </c>
       <c r="R12" s="5">
         <v>9.9254299075886912E-3</v>
       </c>
-      <c r="S12" s="12">
+      <c r="S12" s="11">
         <v>7.3160976056696548E-3</v>
       </c>
       <c r="T12" s="5">
         <v>1.7482517482517454E-3</v>
       </c>
-      <c r="U12" s="12">
+      <c r="U12" s="11">
         <v>1.7286163326909636E-3</v>
       </c>
       <c r="V12" s="5">
         <v>1.8181818181818182E-3</v>
       </c>
-      <c r="W12" s="12">
+      <c r="W12" s="11">
         <v>1.8000539295490727E-3</v>
       </c>
       <c r="X12" s="5">
         <v>3.4430166597809908E-3</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="11">
         <v>3.401822787052036E-3</v>
       </c>
     </row>
@@ -85572,73 +85663,73 @@
       <c r="B13" s="5">
         <v>1.7528342421064342E-2</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>2.8339799451485973E-3</v>
       </c>
       <c r="D13" s="5">
         <v>1.9176585973111039E-2</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>3.0756485425356959E-3</v>
       </c>
       <c r="F13" s="5">
         <v>1.9108531221206537E-2</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>2.8776979428848221E-3</v>
       </c>
       <c r="H13" s="5">
         <v>2.0043496833005207E-2</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>3.1077568077704301E-3</v>
       </c>
       <c r="J13" s="5">
         <v>2.5582023912287654E-2</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>3.470169481508354E-3</v>
       </c>
       <c r="L13" s="5">
         <v>3.1605732365601921E-2</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>3.6418315030089204E-3</v>
       </c>
       <c r="N13" s="5">
         <v>2.7149070481771509E-2</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>3.3483592200327637E-3</v>
       </c>
       <c r="P13" s="5">
         <v>2.1764642647163858E-2</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="11">
         <v>3.0577997557606927E-3</v>
       </c>
       <c r="R13" s="5">
         <v>1.3205516155596815E-2</v>
       </c>
-      <c r="S13" s="12">
+      <c r="S13" s="11">
         <v>2.5344540567340847E-3</v>
       </c>
       <c r="T13" s="5">
         <v>1.3530159010637028E-2</v>
       </c>
-      <c r="U13" s="12">
+      <c r="U13" s="11">
         <v>2.3534984309413979E-3</v>
       </c>
       <c r="V13" s="5">
         <v>1.17032444347806E-2</v>
       </c>
-      <c r="W13" s="12">
+      <c r="W13" s="11">
         <v>2.2703602254611922E-3</v>
       </c>
       <c r="X13" s="5">
         <v>2.4781700011234462E-2</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="11">
         <v>3.4387763167460688E-3</v>
       </c>
     </row>
@@ -85649,73 +85740,73 @@
       <c r="B14" s="5">
         <v>1.2187982917907887E-2</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>1.979381381238193E-3</v>
       </c>
       <c r="D14" s="5">
         <v>1.096458243764957E-2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>1.9076276643622912E-3</v>
       </c>
       <c r="F14" s="5">
         <v>1.1132307275502202E-2</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>1.8205209451763078E-3</v>
       </c>
       <c r="H14" s="5">
         <v>1.0270744527225852E-2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>1.797967318769383E-3</v>
       </c>
       <c r="J14" s="5">
         <v>1.2237368120763838E-2</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="11">
         <v>1.9866386772901361E-3</v>
       </c>
       <c r="L14" s="5">
         <v>2.5486910340021388E-2</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="11">
         <v>2.8823077881571864E-3</v>
       </c>
       <c r="N14" s="5">
         <v>2.4604341329281354E-2</v>
       </c>
-      <c r="O14" s="12">
+      <c r="O14" s="11">
         <v>2.7698873780190262E-3</v>
       </c>
       <c r="P14" s="5">
         <v>1.9248233691896925E-2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="11">
         <v>2.4364857989420887E-3</v>
       </c>
       <c r="R14" s="5">
         <v>1.0279618392032478E-2</v>
       </c>
-      <c r="S14" s="12">
+      <c r="S14" s="11">
         <v>1.8449675060612861E-3</v>
       </c>
       <c r="T14" s="5">
         <v>8.2115758531610891E-3</v>
       </c>
-      <c r="U14" s="12">
+      <c r="U14" s="11">
         <v>1.5801388137417561E-3</v>
       </c>
       <c r="V14" s="5">
         <v>8.9461152830890567E-3</v>
       </c>
-      <c r="W14" s="12">
+      <c r="W14" s="11">
         <v>1.6519851482399081E-3</v>
       </c>
       <c r="X14" s="5">
         <v>1.2195923816289155E-2</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="11">
         <v>1.9587981156746685E-3</v>
       </c>
     </row>
@@ -85726,73 +85817,73 @@
       <c r="B15" s="5">
         <v>1.0875801953938712E-2</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>2.6339737289756957E-3</v>
       </c>
       <c r="D15" s="5">
         <v>6.9102825639453663E-3</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>2.2971892274047264E-3</v>
       </c>
       <c r="F15" s="5">
         <v>6.3562326352236782E-3</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>2.0129754188332812E-3</v>
       </c>
       <c r="H15" s="5">
         <v>5.5673422634327924E-3</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>2.0122937420382027E-3</v>
       </c>
       <c r="J15" s="5">
         <v>5.8192444749655993E-3</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="11">
         <v>1.990665014376101E-3</v>
       </c>
       <c r="L15" s="5">
         <v>8.5164003430120479E-3</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="11">
         <v>2.389804818728455E-3</v>
       </c>
       <c r="N15" s="5">
         <v>9.4852091956549589E-3</v>
       </c>
-      <c r="O15" s="12">
+      <c r="O15" s="11">
         <v>2.5608204107409791E-3</v>
       </c>
       <c r="P15" s="5">
         <v>9.396877766689845E-3</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="11">
         <v>2.5237399601229938E-3</v>
       </c>
       <c r="R15" s="5">
         <v>4.3579795219790855E-3</v>
       </c>
-      <c r="S15" s="12">
+      <c r="S15" s="11">
         <v>1.7537424965725357E-3</v>
       </c>
       <c r="T15" s="5">
         <v>3.5169866893811799E-3</v>
       </c>
-      <c r="U15" s="12">
+      <c r="U15" s="11">
         <v>1.5652321847205329E-3</v>
       </c>
       <c r="V15" s="5">
         <v>5.8597478446166008E-3</v>
       </c>
-      <c r="W15" s="12">
+      <c r="W15" s="11">
         <v>2.0412105205236844E-3</v>
       </c>
       <c r="X15" s="5">
         <v>1.5552121274697971E-2</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="11">
         <v>3.3354617479816441E-3</v>
       </c>
     </row>
@@ -85803,73 +85894,73 @@
       <c r="B16" s="5">
         <v>1.6434436005773927E-2</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>4.3134327126123691E-3</v>
       </c>
       <c r="D16" s="5">
         <v>1.754326546117773E-2</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>4.7279430392507694E-3</v>
       </c>
       <c r="F16" s="5">
         <v>1.1895845104053591E-2</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <v>3.5706797847135921E-3</v>
       </c>
       <c r="H16" s="5">
         <v>8.6329971167604276E-3</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>3.0992020748081528E-3</v>
       </c>
       <c r="J16" s="5">
         <v>1.734908369331651E-2</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="11">
         <v>4.3576960743615997E-3</v>
       </c>
       <c r="L16" s="5">
         <v>1.9540768370734138E-2</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="11">
         <v>4.5462837152146947E-3</v>
       </c>
       <c r="N16" s="5">
         <v>1.7728947212867205E-2</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="11">
         <v>4.2905237063413136E-3</v>
       </c>
       <c r="P16" s="5">
         <v>1.0726587265874962E-2</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="11">
         <v>3.3349090350965034E-3</v>
       </c>
       <c r="R16" s="5">
         <v>8.6187065013936942E-3</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="11">
         <v>3.0236442992705947E-3</v>
       </c>
       <c r="T16" s="5">
         <v>9.9318856294278099E-3</v>
       </c>
-      <c r="U16" s="12">
+      <c r="U16" s="11">
         <v>3.0347521982956021E-3</v>
       </c>
       <c r="V16" s="5">
         <v>1.1380415018351854E-2</v>
       </c>
-      <c r="W16" s="12">
+      <c r="W16" s="11">
         <v>3.4926067174795485E-3</v>
       </c>
       <c r="X16" s="5">
         <v>2.3553957274284453E-2</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="11">
         <v>5.0212193005369143E-3</v>
       </c>
     </row>
@@ -85880,73 +85971,73 @@
       <c r="B17" s="5">
         <v>6.3895177917969977E-3</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>1.6997636063595112E-3</v>
       </c>
       <c r="D17" s="5">
         <v>4.5700424392441227E-3</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1.4747763433258199E-3</v>
       </c>
       <c r="F17" s="5">
         <v>4.4174514622348261E-3</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>1.4245260109697975E-3</v>
       </c>
       <c r="H17" s="5">
         <v>2.1065144522252805E-3</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>9.8278328444543583E-4</v>
       </c>
       <c r="J17" s="5">
         <v>2.8982111231015588E-3</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="11">
         <v>1.1269268190519449E-3</v>
       </c>
       <c r="L17" s="5">
         <v>2.7000590195888994E-3</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="11">
         <v>1.0777831943195918E-3</v>
       </c>
       <c r="N17" s="5">
         <v>3.8090221856838008E-3</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="11">
         <v>1.2886466154573837E-3</v>
       </c>
       <c r="P17" s="5">
         <v>3.5096312022717775E-3</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="11">
         <v>1.2459717388522984E-3</v>
       </c>
       <c r="R17" s="5">
         <v>3.3166846863699651E-3</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="11">
         <v>1.207638157830078E-3</v>
       </c>
       <c r="T17" s="5">
         <v>3.820576191325416E-3</v>
       </c>
-      <c r="U17" s="12">
+      <c r="U17" s="11">
         <v>1.3065863924490448E-3</v>
       </c>
       <c r="V17" s="5">
         <v>3.8909576865105459E-3</v>
       </c>
-      <c r="W17" s="12">
+      <c r="W17" s="11">
         <v>1.3560535260597405E-3</v>
       </c>
       <c r="X17" s="5">
         <v>7.1208229844206862E-3</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="11">
         <v>1.8120208829241655E-3</v>
       </c>
     </row>
@@ -86061,7 +86152,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="3">
@@ -86105,7 +86196,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="3">
@@ -86167,7 +86258,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B9" s="3">
@@ -86211,7 +86302,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="3">
@@ -86273,7 +86364,7 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="3">
@@ -86317,7 +86408,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B13" s="3">
@@ -86379,7 +86470,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="3">
@@ -86423,7 +86514,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="3">
@@ -86485,7 +86576,7 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="3">
@@ -86529,7 +86620,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B19" s="3">
@@ -86591,7 +86682,7 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="3">
@@ -86635,7 +86726,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="3">
@@ -86697,7 +86788,7 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B24" s="3">
@@ -86741,7 +86832,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="3">
@@ -86803,7 +86894,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="3">
@@ -86847,7 +86938,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="3">
@@ -86909,7 +87000,7 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3">
@@ -86953,7 +87044,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="3">
@@ -87015,7 +87106,7 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B33" s="3">
@@ -87059,7 +87150,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B34" s="3">
@@ -87121,7 +87212,7 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="3">
@@ -87165,7 +87256,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="3">
@@ -87227,7 +87318,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="3">
@@ -87271,7 +87362,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="3">
